--- a/config_11.9/shoping_config_xiaomi.xlsx
+++ b/config_11.9/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5819" uniqueCount="2041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5904" uniqueCount="2069">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7901,6 +7901,117 @@
   </si>
   <si>
     <t>79400000,5540000,27,27,2000000,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送福利券和苹果大战道具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","28福利券","水滴*1",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","shop_gold_sum","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,28,1,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","48福利券","水滴*2",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","shop_gold_sum","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,48,2,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","98福利券","水滴*3",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,98,3,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","58福利券","水滴*3",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,58,3,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","98福利券","水滴*5",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,98,5,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","168福利券","水滴*10",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,168,10,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","168福利券","太阳*1",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","shop_gold_sum","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,168,1,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","338福利券","太阳*2",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,338,2,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","668福利券","太阳*5",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","shop_gold_sum","prop_guess_apple_bet_2",</t>
+  </si>
+  <si>
+    <t>19800000,688,2,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,688,5,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","1688福利券","太阳*10",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1688,10,</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -8122,7 +8233,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8393,6 +8504,12 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8406,9 +8523,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10901,13 +11015,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AIG737"/>
+  <dimension ref="A1:AIG749"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="X707" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A709" sqref="A709:XFD737"/>
+      <selection pane="bottomRight" activeCell="AA727" sqref="AA727:AA728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -61164,7 +61278,7 @@
       <c r="G655" s="82" t="s">
         <v>1941</v>
       </c>
-      <c r="H655" s="92" t="s">
+      <c r="H655" s="94" t="s">
         <v>1942</v>
       </c>
       <c r="K655" s="82" t="s">
@@ -61232,7 +61346,7 @@
       <c r="G656" s="77" t="s">
         <v>1944</v>
       </c>
-      <c r="H656" s="93"/>
+      <c r="H656" s="95"/>
       <c r="K656" s="82" t="s">
         <v>1617</v>
       </c>
@@ -61298,7 +61412,7 @@
       <c r="G657" s="77" t="s">
         <v>1945</v>
       </c>
-      <c r="H657" s="93"/>
+      <c r="H657" s="95"/>
       <c r="K657" s="82" t="s">
         <v>1618</v>
       </c>
@@ -61364,7 +61478,7 @@
       <c r="G658" s="77" t="s">
         <v>1946</v>
       </c>
-      <c r="H658" s="93"/>
+      <c r="H658" s="95"/>
       <c r="K658" s="82" t="s">
         <v>1620</v>
       </c>
@@ -61430,7 +61544,7 @@
       <c r="G659" s="77" t="s">
         <v>1947</v>
       </c>
-      <c r="H659" s="93"/>
+      <c r="H659" s="95"/>
       <c r="K659" s="82" t="s">
         <v>1621</v>
       </c>
@@ -61496,7 +61610,7 @@
       <c r="G660" s="77" t="s">
         <v>1948</v>
       </c>
-      <c r="H660" s="93"/>
+      <c r="H660" s="95"/>
       <c r="K660" s="82" t="s">
         <v>1622</v>
       </c>
@@ -61562,7 +61676,7 @@
       <c r="G661" s="77" t="s">
         <v>1949</v>
       </c>
-      <c r="H661" s="93"/>
+      <c r="H661" s="95"/>
       <c r="K661" s="82" t="s">
         <v>1624</v>
       </c>
@@ -63119,7 +63233,7 @@
       <c r="G683" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="H683" s="90" t="s">
+      <c r="H683" s="92" t="s">
         <v>1891</v>
       </c>
       <c r="K683" s="75" t="s">
@@ -63187,7 +63301,7 @@
       <c r="G684" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="H684" s="90"/>
+      <c r="H684" s="92"/>
       <c r="K684" s="75" t="s">
         <v>1584</v>
       </c>
@@ -63253,7 +63367,7 @@
       <c r="G685" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="H685" s="90"/>
+      <c r="H685" s="92"/>
       <c r="K685" s="75" t="s">
         <v>1586</v>
       </c>
@@ -63319,7 +63433,7 @@
       <c r="G686" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="H686" s="90"/>
+      <c r="H686" s="92"/>
       <c r="K686" s="75" t="s">
         <v>1588</v>
       </c>
@@ -63385,7 +63499,7 @@
       <c r="G687" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="H687" s="90"/>
+      <c r="H687" s="92"/>
       <c r="K687" s="75" t="s">
         <v>1590</v>
       </c>
@@ -63451,7 +63565,7 @@
       <c r="G688" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="H688" s="90"/>
+      <c r="H688" s="92"/>
       <c r="K688" s="75" t="s">
         <v>1592</v>
       </c>
@@ -63517,7 +63631,7 @@
       <c r="G689" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="H689" s="90" t="s">
+      <c r="H689" s="92" t="s">
         <v>1892</v>
       </c>
       <c r="K689" s="75" t="s">
@@ -63585,7 +63699,7 @@
       <c r="G690" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="H690" s="91"/>
+      <c r="H690" s="93"/>
       <c r="K690" s="75" t="s">
         <v>1584</v>
       </c>
@@ -63651,7 +63765,7 @@
       <c r="G691" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="H691" s="91"/>
+      <c r="H691" s="93"/>
       <c r="K691" s="75" t="s">
         <v>1586</v>
       </c>
@@ -63717,7 +63831,7 @@
       <c r="G692" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="H692" s="91"/>
+      <c r="H692" s="93"/>
       <c r="K692" s="75" t="s">
         <v>1588</v>
       </c>
@@ -63783,7 +63897,7 @@
       <c r="G693" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="H693" s="91"/>
+      <c r="H693" s="93"/>
       <c r="K693" s="75" t="s">
         <v>1590</v>
       </c>
@@ -63849,7 +63963,7 @@
       <c r="G694" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="H694" s="91"/>
+      <c r="H694" s="93"/>
       <c r="K694" s="75" t="s">
         <v>1592</v>
       </c>
@@ -64146,7 +64260,7 @@
       <c r="G698" s="82" t="s">
         <v>1940</v>
       </c>
-      <c r="H698" s="92" t="s">
+      <c r="H698" s="94" t="s">
         <v>1950</v>
       </c>
       <c r="K698" s="82" t="s">
@@ -64214,7 +64328,7 @@
       <c r="G699" s="77" t="s">
         <v>1943</v>
       </c>
-      <c r="H699" s="93"/>
+      <c r="H699" s="95"/>
       <c r="K699" s="82" t="s">
         <v>1617</v>
       </c>
@@ -64280,7 +64394,7 @@
       <c r="G700" s="77" t="s">
         <v>1945</v>
       </c>
-      <c r="H700" s="93"/>
+      <c r="H700" s="95"/>
       <c r="K700" s="82" t="s">
         <v>1618</v>
       </c>
@@ -64346,7 +64460,7 @@
       <c r="G701" s="77" t="s">
         <v>1946</v>
       </c>
-      <c r="H701" s="93"/>
+      <c r="H701" s="95"/>
       <c r="K701" s="82" t="s">
         <v>1620</v>
       </c>
@@ -64412,7 +64526,7 @@
       <c r="G702" s="77" t="s">
         <v>1947</v>
       </c>
-      <c r="H702" s="93"/>
+      <c r="H702" s="95"/>
       <c r="K702" s="82" t="s">
         <v>1621</v>
       </c>
@@ -64478,7 +64592,7 @@
       <c r="G703" s="77" t="s">
         <v>1948</v>
       </c>
-      <c r="H703" s="93"/>
+      <c r="H703" s="95"/>
       <c r="K703" s="82" t="s">
         <v>1622</v>
       </c>
@@ -64544,7 +64658,7 @@
       <c r="G704" s="77" t="s">
         <v>1949</v>
       </c>
-      <c r="H704" s="93"/>
+      <c r="H704" s="95"/>
       <c r="K704" s="82" t="s">
         <v>1624</v>
       </c>
@@ -64899,7 +65013,7 @@
       <c r="G709" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H709" s="94" t="s">
+      <c r="H709" s="96" t="s">
         <v>1965</v>
       </c>
       <c r="J709" s="89" t="s">
@@ -64970,7 +65084,7 @@
       <c r="G710" s="89" t="s">
         <v>1963</v>
       </c>
-      <c r="H710" s="94"/>
+      <c r="H710" s="96"/>
       <c r="J710" s="89" t="s">
         <v>1547</v>
       </c>
@@ -65039,7 +65153,7 @@
       <c r="G711" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H711" s="94"/>
+      <c r="H711" s="96"/>
       <c r="J711" s="89" t="s">
         <v>1547</v>
       </c>
@@ -65108,7 +65222,7 @@
       <c r="G712" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H712" s="94"/>
+      <c r="H712" s="96"/>
       <c r="J712" s="89" t="s">
         <v>1547</v>
       </c>
@@ -65177,7 +65291,7 @@
       <c r="G713" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H713" s="94"/>
+      <c r="H713" s="96"/>
       <c r="J713" s="89" t="s">
         <v>1554</v>
       </c>
@@ -65246,7 +65360,7 @@
       <c r="G714" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H714" s="94"/>
+      <c r="H714" s="96"/>
       <c r="J714" s="89" t="s">
         <v>1554</v>
       </c>
@@ -65315,7 +65429,7 @@
       <c r="G715" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H715" s="94"/>
+      <c r="H715" s="96"/>
       <c r="J715" s="89" t="s">
         <v>1554</v>
       </c>
@@ -65384,7 +65498,7 @@
       <c r="G716" s="89" t="s">
         <v>1963</v>
       </c>
-      <c r="H716" s="94"/>
+      <c r="H716" s="96"/>
       <c r="J716" s="89" t="s">
         <v>1554</v>
       </c>
@@ -65453,7 +65567,7 @@
       <c r="G717" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H717" s="94"/>
+      <c r="H717" s="96"/>
       <c r="J717" s="89" t="s">
         <v>1561</v>
       </c>
@@ -65522,7 +65636,7 @@
       <c r="G718" s="89" t="s">
         <v>1963</v>
       </c>
-      <c r="H718" s="94"/>
+      <c r="H718" s="96"/>
       <c r="J718" s="89" t="s">
         <v>1561</v>
       </c>
@@ -65591,7 +65705,7 @@
       <c r="G719" s="89" t="s">
         <v>1963</v>
       </c>
-      <c r="H719" s="94"/>
+      <c r="H719" s="96"/>
       <c r="J719" s="89" t="s">
         <v>1561</v>
       </c>
@@ -65660,7 +65774,7 @@
       <c r="G720" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H720" s="94"/>
+      <c r="H720" s="96"/>
       <c r="J720" s="89" t="s">
         <v>1561</v>
       </c>
@@ -65729,7 +65843,7 @@
       <c r="G721" s="89" t="s">
         <v>1963</v>
       </c>
-      <c r="H721" s="94"/>
+      <c r="H721" s="96"/>
       <c r="J721" s="89" t="s">
         <v>1450</v>
       </c>
@@ -65798,7 +65912,7 @@
       <c r="G722" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H722" s="94"/>
+      <c r="H722" s="96"/>
       <c r="J722" s="89" t="s">
         <v>1450</v>
       </c>
@@ -65867,7 +65981,7 @@
       <c r="G723" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H723" s="94"/>
+      <c r="H723" s="96"/>
       <c r="J723" s="89" t="s">
         <v>1450</v>
       </c>
@@ -65936,7 +66050,7 @@
       <c r="G724" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H724" s="94"/>
+      <c r="H724" s="96"/>
       <c r="J724" s="89" t="s">
         <v>1450</v>
       </c>
@@ -66057,12 +66171,12 @@
         <v>10642</v>
       </c>
       <c r="F726" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G726" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="H726" s="95" t="s">
+      <c r="H726" s="91" t="s">
         <v>2012</v>
       </c>
       <c r="J726" s="21" t="s">
@@ -66128,12 +66242,12 @@
         <v>10643</v>
       </c>
       <c r="F727" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G727" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="H727" s="95"/>
+      <c r="H727" s="91"/>
       <c r="J727" s="21" t="s">
         <v>1554</v>
       </c>
@@ -66197,12 +66311,12 @@
         <v>10644</v>
       </c>
       <c r="F728" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G728" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="H728" s="95"/>
+      <c r="H728" s="91"/>
       <c r="J728" s="21" t="s">
         <v>1554</v>
       </c>
@@ -66266,12 +66380,12 @@
         <v>10645</v>
       </c>
       <c r="F729" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G729" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="H729" s="95"/>
+      <c r="H729" s="91"/>
       <c r="J729" s="21" t="s">
         <v>1554</v>
       </c>
@@ -66335,12 +66449,12 @@
         <v>10646</v>
       </c>
       <c r="F730" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G730" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="H730" s="95"/>
+      <c r="H730" s="91"/>
       <c r="J730" s="21" t="s">
         <v>1561</v>
       </c>
@@ -66404,12 +66518,12 @@
         <v>10647</v>
       </c>
       <c r="F731" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G731" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="H731" s="95"/>
+      <c r="H731" s="91"/>
       <c r="J731" s="21" t="s">
         <v>1561</v>
       </c>
@@ -66473,12 +66587,12 @@
         <v>10648</v>
       </c>
       <c r="F732" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G732" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="H732" s="95"/>
+      <c r="H732" s="91"/>
       <c r="J732" s="21" t="s">
         <v>1561</v>
       </c>
@@ -66542,12 +66656,12 @@
         <v>10649</v>
       </c>
       <c r="F733" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G733" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="H733" s="95"/>
+      <c r="H733" s="91"/>
       <c r="J733" s="21" t="s">
         <v>1561</v>
       </c>
@@ -66611,12 +66725,12 @@
         <v>10650</v>
       </c>
       <c r="F734" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G734" s="30" t="s">
         <v>2010</v>
       </c>
-      <c r="H734" s="95"/>
+      <c r="H734" s="91"/>
       <c r="J734" s="21" t="s">
         <v>1450</v>
       </c>
@@ -66680,12 +66794,12 @@
         <v>10651</v>
       </c>
       <c r="F735" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G735" s="30" t="s">
         <v>2010</v>
       </c>
-      <c r="H735" s="95"/>
+      <c r="H735" s="91"/>
       <c r="J735" s="21" t="s">
         <v>1450</v>
       </c>
@@ -66749,12 +66863,12 @@
         <v>10652</v>
       </c>
       <c r="F736" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G736" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="H736" s="95"/>
+      <c r="H736" s="91"/>
       <c r="J736" s="21" t="s">
         <v>1450</v>
       </c>
@@ -66818,12 +66932,12 @@
         <v>10653</v>
       </c>
       <c r="F737" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G737" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="H737" s="95"/>
+      <c r="H737" s="91"/>
       <c r="J737" s="21" t="s">
         <v>1450</v>
       </c>
@@ -66879,8 +66993,839 @@
         <v>1</v>
       </c>
     </row>
+    <row r="738" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A738" s="90">
+        <v>737</v>
+      </c>
+      <c r="B738" s="90">
+        <v>10654</v>
+      </c>
+      <c r="F738" s="90">
+        <v>1</v>
+      </c>
+      <c r="G738" s="90" t="s">
+        <v>2041</v>
+      </c>
+      <c r="H738" s="96" t="s">
+        <v>2042</v>
+      </c>
+      <c r="J738" s="90" t="s">
+        <v>1547</v>
+      </c>
+      <c r="K738" s="90" t="s">
+        <v>2043</v>
+      </c>
+      <c r="M738" s="90">
+        <v>-31</v>
+      </c>
+      <c r="N738" s="90">
+        <v>0</v>
+      </c>
+      <c r="O738" s="90">
+        <v>0</v>
+      </c>
+      <c r="P738" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q738" s="90">
+        <v>600</v>
+      </c>
+      <c r="R738" s="90" t="s">
+        <v>2044</v>
+      </c>
+      <c r="S738" s="74" t="s">
+        <v>2045</v>
+      </c>
+      <c r="X738" s="90" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y738" s="90">
+        <v>99999999</v>
+      </c>
+      <c r="Z738" s="90">
+        <v>1636416000</v>
+      </c>
+      <c r="AA738" s="90">
+        <v>1636991999</v>
+      </c>
+      <c r="AB738" s="90">
+        <v>76</v>
+      </c>
+      <c r="AI738" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ738" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM738" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN738" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A739" s="90">
+        <v>738</v>
+      </c>
+      <c r="B739" s="90">
+        <v>10655</v>
+      </c>
+      <c r="F739" s="90">
+        <v>1</v>
+      </c>
+      <c r="G739" s="90" t="s">
+        <v>2046</v>
+      </c>
+      <c r="H739" s="96"/>
+      <c r="J739" s="90" t="s">
+        <v>1547</v>
+      </c>
+      <c r="K739" s="90" t="s">
+        <v>2047</v>
+      </c>
+      <c r="M739" s="90">
+        <v>-31</v>
+      </c>
+      <c r="N739" s="90">
+        <v>0</v>
+      </c>
+      <c r="O739" s="90">
+        <v>0</v>
+      </c>
+      <c r="P739" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q739" s="90">
+        <v>1000</v>
+      </c>
+      <c r="R739" s="90" t="s">
+        <v>2048</v>
+      </c>
+      <c r="S739" s="74" t="s">
+        <v>2049</v>
+      </c>
+      <c r="X739" s="90" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y739" s="90">
+        <v>99999999</v>
+      </c>
+      <c r="Z739" s="90">
+        <v>1636416000</v>
+      </c>
+      <c r="AA739" s="90">
+        <v>1636991999</v>
+      </c>
+      <c r="AB739" s="90">
+        <v>76</v>
+      </c>
+      <c r="AI739" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ739" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM739" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN739" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A740" s="90">
+        <v>739</v>
+      </c>
+      <c r="B740" s="90">
+        <v>10656</v>
+      </c>
+      <c r="F740" s="90">
+        <v>1</v>
+      </c>
+      <c r="G740" s="90" t="s">
+        <v>2046</v>
+      </c>
+      <c r="H740" s="96"/>
+      <c r="J740" s="90" t="s">
+        <v>1547</v>
+      </c>
+      <c r="K740" s="90" t="s">
+        <v>2050</v>
+      </c>
+      <c r="M740" s="90">
+        <v>-31</v>
+      </c>
+      <c r="N740" s="90">
+        <v>0</v>
+      </c>
+      <c r="O740" s="90">
+        <v>0</v>
+      </c>
+      <c r="P740" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q740" s="90">
+        <v>1800</v>
+      </c>
+      <c r="R740" s="90" t="s">
+        <v>2048</v>
+      </c>
+      <c r="S740" s="74" t="s">
+        <v>2051</v>
+      </c>
+      <c r="X740" s="90" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y740" s="90">
+        <v>99999999</v>
+      </c>
+      <c r="Z740" s="90">
+        <v>1636416000</v>
+      </c>
+      <c r="AA740" s="90">
+        <v>1636991999</v>
+      </c>
+      <c r="AB740" s="90">
+        <v>76</v>
+      </c>
+      <c r="AI740" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ740" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM740" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN740" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A741" s="90">
+        <v>740</v>
+      </c>
+      <c r="B741" s="90">
+        <v>10657</v>
+      </c>
+      <c r="F741" s="90">
+        <v>1</v>
+      </c>
+      <c r="G741" s="90" t="s">
+        <v>2046</v>
+      </c>
+      <c r="H741" s="96"/>
+      <c r="J741" s="90" t="s">
+        <v>1554</v>
+      </c>
+      <c r="K741" s="90" t="s">
+        <v>2052</v>
+      </c>
+      <c r="M741" s="90">
+        <v>-31</v>
+      </c>
+      <c r="N741" s="90">
+        <v>0</v>
+      </c>
+      <c r="O741" s="90">
+        <v>0</v>
+      </c>
+      <c r="P741" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q741" s="90">
+        <v>1800</v>
+      </c>
+      <c r="R741" s="90" t="s">
+        <v>2048</v>
+      </c>
+      <c r="S741" s="74" t="s">
+        <v>2053</v>
+      </c>
+      <c r="X741" s="90" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y741" s="90">
+        <v>99999999</v>
+      </c>
+      <c r="Z741" s="90">
+        <v>1636416000</v>
+      </c>
+      <c r="AA741" s="90">
+        <v>1636991999</v>
+      </c>
+      <c r="AB741" s="90">
+        <v>77</v>
+      </c>
+      <c r="AI741" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ741" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM741" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN741" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A742" s="90">
+        <v>741</v>
+      </c>
+      <c r="B742" s="90">
+        <v>10658</v>
+      </c>
+      <c r="F742" s="90">
+        <v>1</v>
+      </c>
+      <c r="G742" s="90" t="s">
+        <v>2046</v>
+      </c>
+      <c r="H742" s="96"/>
+      <c r="J742" s="90" t="s">
+        <v>1554</v>
+      </c>
+      <c r="K742" s="90" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M742" s="90">
+        <v>-31</v>
+      </c>
+      <c r="N742" s="90">
+        <v>0</v>
+      </c>
+      <c r="O742" s="90">
+        <v>0</v>
+      </c>
+      <c r="P742" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q742" s="90">
+        <v>3000</v>
+      </c>
+      <c r="R742" s="90" t="s">
+        <v>2048</v>
+      </c>
+      <c r="S742" s="74" t="s">
+        <v>2055</v>
+      </c>
+      <c r="X742" s="90" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y742" s="90">
+        <v>99999999</v>
+      </c>
+      <c r="Z742" s="90">
+        <v>1636416000</v>
+      </c>
+      <c r="AA742" s="90">
+        <v>1636991999</v>
+      </c>
+      <c r="AB742" s="90">
+        <v>77</v>
+      </c>
+      <c r="AI742" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ742" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM742" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN742" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A743" s="90">
+        <v>742</v>
+      </c>
+      <c r="B743" s="90">
+        <v>10659</v>
+      </c>
+      <c r="F743" s="90">
+        <v>1</v>
+      </c>
+      <c r="G743" s="90" t="s">
+        <v>2046</v>
+      </c>
+      <c r="H743" s="96"/>
+      <c r="J743" s="90" t="s">
+        <v>1554</v>
+      </c>
+      <c r="K743" s="90" t="s">
+        <v>2056</v>
+      </c>
+      <c r="M743" s="90">
+        <v>-31</v>
+      </c>
+      <c r="N743" s="90">
+        <v>0</v>
+      </c>
+      <c r="O743" s="90">
+        <v>0</v>
+      </c>
+      <c r="P743" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q743" s="90">
+        <v>4800</v>
+      </c>
+      <c r="R743" s="90" t="s">
+        <v>2048</v>
+      </c>
+      <c r="S743" s="74" t="s">
+        <v>2057</v>
+      </c>
+      <c r="X743" s="90" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y743" s="90">
+        <v>99999999</v>
+      </c>
+      <c r="Z743" s="90">
+        <v>1636416000</v>
+      </c>
+      <c r="AA743" s="90">
+        <v>1636991999</v>
+      </c>
+      <c r="AB743" s="90">
+        <v>77</v>
+      </c>
+      <c r="AI743" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ743" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM743" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN743" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A744" s="90">
+        <v>743</v>
+      </c>
+      <c r="B744" s="90">
+        <v>10660</v>
+      </c>
+      <c r="F744" s="90">
+        <v>1</v>
+      </c>
+      <c r="G744" s="90" t="s">
+        <v>2046</v>
+      </c>
+      <c r="H744" s="96"/>
+      <c r="J744" s="90" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K744" s="90" t="s">
+        <v>2058</v>
+      </c>
+      <c r="M744" s="90">
+        <v>-31</v>
+      </c>
+      <c r="N744" s="90">
+        <v>0</v>
+      </c>
+      <c r="O744" s="90">
+        <v>0</v>
+      </c>
+      <c r="P744" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q744" s="90">
+        <v>4800</v>
+      </c>
+      <c r="R744" s="90" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S744" s="74" t="s">
+        <v>2060</v>
+      </c>
+      <c r="X744" s="90" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y744" s="90">
+        <v>99999999</v>
+      </c>
+      <c r="Z744" s="90">
+        <v>1636416000</v>
+      </c>
+      <c r="AA744" s="90">
+        <v>1636991999</v>
+      </c>
+      <c r="AB744" s="90">
+        <v>78</v>
+      </c>
+      <c r="AI744" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ744" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM744" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN744" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A745" s="90">
+        <v>744</v>
+      </c>
+      <c r="B745" s="90">
+        <v>10661</v>
+      </c>
+      <c r="F745" s="90">
+        <v>1</v>
+      </c>
+      <c r="G745" s="90" t="s">
+        <v>2046</v>
+      </c>
+      <c r="H745" s="96"/>
+      <c r="J745" s="90" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K745" s="90" t="s">
+        <v>2061</v>
+      </c>
+      <c r="M745" s="90">
+        <v>-31</v>
+      </c>
+      <c r="N745" s="90">
+        <v>0</v>
+      </c>
+      <c r="O745" s="90">
+        <v>0</v>
+      </c>
+      <c r="P745" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q745" s="90">
+        <v>9800</v>
+      </c>
+      <c r="R745" s="90" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S745" s="74" t="s">
+        <v>2062</v>
+      </c>
+      <c r="X745" s="90" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y745" s="90">
+        <v>99999999</v>
+      </c>
+      <c r="Z745" s="90">
+        <v>1636416000</v>
+      </c>
+      <c r="AA745" s="90">
+        <v>1636991999</v>
+      </c>
+      <c r="AB745" s="90">
+        <v>78</v>
+      </c>
+      <c r="AI745" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ745" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM745" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN745" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A746" s="90">
+        <v>745</v>
+      </c>
+      <c r="B746" s="90">
+        <v>10662</v>
+      </c>
+      <c r="F746" s="90">
+        <v>1</v>
+      </c>
+      <c r="G746" s="90" t="s">
+        <v>2046</v>
+      </c>
+      <c r="H746" s="96"/>
+      <c r="J746" s="90" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K746" s="90" t="s">
+        <v>2063</v>
+      </c>
+      <c r="M746" s="90">
+        <v>-31</v>
+      </c>
+      <c r="N746" s="90">
+        <v>0</v>
+      </c>
+      <c r="O746" s="90">
+        <v>0</v>
+      </c>
+      <c r="P746" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q746" s="90">
+        <v>19800</v>
+      </c>
+      <c r="R746" s="90" t="s">
+        <v>2064</v>
+      </c>
+      <c r="S746" s="74" t="s">
+        <v>2065</v>
+      </c>
+      <c r="X746" s="90" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y746" s="90">
+        <v>99999999</v>
+      </c>
+      <c r="Z746" s="90">
+        <v>1636416000</v>
+      </c>
+      <c r="AA746" s="90">
+        <v>1636991999</v>
+      </c>
+      <c r="AB746" s="90">
+        <v>78</v>
+      </c>
+      <c r="AI746" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ746" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM746" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN746" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A747" s="90">
+        <v>746</v>
+      </c>
+      <c r="B747" s="90">
+        <v>10663</v>
+      </c>
+      <c r="F747" s="90">
+        <v>1</v>
+      </c>
+      <c r="G747" s="90" t="s">
+        <v>2046</v>
+      </c>
+      <c r="H747" s="96"/>
+      <c r="J747" s="90" t="s">
+        <v>1450</v>
+      </c>
+      <c r="K747" s="90" t="s">
+        <v>2061</v>
+      </c>
+      <c r="M747" s="90">
+        <v>-31</v>
+      </c>
+      <c r="N747" s="90">
+        <v>0</v>
+      </c>
+      <c r="O747" s="90">
+        <v>0</v>
+      </c>
+      <c r="P747" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q747" s="90">
+        <v>9800</v>
+      </c>
+      <c r="R747" s="90" t="s">
+        <v>2064</v>
+      </c>
+      <c r="S747" s="74" t="s">
+        <v>2062</v>
+      </c>
+      <c r="X747" s="90" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y747" s="90">
+        <v>99999999</v>
+      </c>
+      <c r="Z747" s="90">
+        <v>1636416000</v>
+      </c>
+      <c r="AA747" s="90">
+        <v>1636991999</v>
+      </c>
+      <c r="AB747" s="90">
+        <v>79</v>
+      </c>
+      <c r="AI747" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ747" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM747" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN747" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A748" s="90">
+        <v>747</v>
+      </c>
+      <c r="B748" s="90">
+        <v>10664</v>
+      </c>
+      <c r="F748" s="90">
+        <v>1</v>
+      </c>
+      <c r="G748" s="90" t="s">
+        <v>2046</v>
+      </c>
+      <c r="H748" s="96"/>
+      <c r="J748" s="90" t="s">
+        <v>1450</v>
+      </c>
+      <c r="K748" s="90" t="s">
+        <v>2063</v>
+      </c>
+      <c r="M748" s="90">
+        <v>-31</v>
+      </c>
+      <c r="N748" s="90">
+        <v>0</v>
+      </c>
+      <c r="O748" s="90">
+        <v>0</v>
+      </c>
+      <c r="P748" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q748" s="90">
+        <v>19800</v>
+      </c>
+      <c r="R748" s="90" t="s">
+        <v>2064</v>
+      </c>
+      <c r="S748" s="74" t="s">
+        <v>2066</v>
+      </c>
+      <c r="X748" s="90" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y748" s="90">
+        <v>99999999</v>
+      </c>
+      <c r="Z748" s="90">
+        <v>1636416000</v>
+      </c>
+      <c r="AA748" s="90">
+        <v>1636991999</v>
+      </c>
+      <c r="AB748" s="90">
+        <v>79</v>
+      </c>
+      <c r="AI748" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ748" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM748" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN748" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A749" s="90">
+        <v>748</v>
+      </c>
+      <c r="B749" s="90">
+        <v>10665</v>
+      </c>
+      <c r="F749" s="90">
+        <v>1</v>
+      </c>
+      <c r="G749" s="90" t="s">
+        <v>2046</v>
+      </c>
+      <c r="H749" s="96"/>
+      <c r="J749" s="90" t="s">
+        <v>1450</v>
+      </c>
+      <c r="K749" s="90" t="s">
+        <v>2067</v>
+      </c>
+      <c r="M749" s="90">
+        <v>-31</v>
+      </c>
+      <c r="N749" s="90">
+        <v>0</v>
+      </c>
+      <c r="O749" s="90">
+        <v>0</v>
+      </c>
+      <c r="P749" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q749" s="90">
+        <v>49800</v>
+      </c>
+      <c r="R749" s="90" t="s">
+        <v>2064</v>
+      </c>
+      <c r="S749" s="74" t="s">
+        <v>2068</v>
+      </c>
+      <c r="X749" s="90" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y749" s="90">
+        <v>99999999</v>
+      </c>
+      <c r="Z749" s="90">
+        <v>1636416000</v>
+      </c>
+      <c r="AA749" s="90">
+        <v>1636991999</v>
+      </c>
+      <c r="AB749" s="90">
+        <v>79</v>
+      </c>
+      <c r="AI749" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ749" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM749" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN749" s="90">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="H738:H749"/>
     <mergeCell ref="H726:H737"/>
     <mergeCell ref="H683:H688"/>
     <mergeCell ref="H689:H694"/>

--- a/config_11.9/shoping_config_xiaomi.xlsx
+++ b/config_11.9/shoping_config_xiaomi.xlsx
@@ -8233,7 +8233,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8507,6 +8507,12 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8521,9 +8527,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11018,10 +11021,10 @@
   <dimension ref="A1:AIG749"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="X707" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="X719" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA727" sqref="AA727:AA728"/>
+      <selection pane="bottomRight" activeCell="AA738" sqref="AA738:AA749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -61278,7 +61281,7 @@
       <c r="G655" s="82" t="s">
         <v>1941</v>
       </c>
-      <c r="H655" s="94" t="s">
+      <c r="H655" s="96" t="s">
         <v>1942</v>
       </c>
       <c r="K655" s="82" t="s">
@@ -61346,7 +61349,7 @@
       <c r="G656" s="77" t="s">
         <v>1944</v>
       </c>
-      <c r="H656" s="95"/>
+      <c r="H656" s="97"/>
       <c r="K656" s="82" t="s">
         <v>1617</v>
       </c>
@@ -61412,7 +61415,7 @@
       <c r="G657" s="77" t="s">
         <v>1945</v>
       </c>
-      <c r="H657" s="95"/>
+      <c r="H657" s="97"/>
       <c r="K657" s="82" t="s">
         <v>1618</v>
       </c>
@@ -61478,7 +61481,7 @@
       <c r="G658" s="77" t="s">
         <v>1946</v>
       </c>
-      <c r="H658" s="95"/>
+      <c r="H658" s="97"/>
       <c r="K658" s="82" t="s">
         <v>1620</v>
       </c>
@@ -61544,7 +61547,7 @@
       <c r="G659" s="77" t="s">
         <v>1947</v>
       </c>
-      <c r="H659" s="95"/>
+      <c r="H659" s="97"/>
       <c r="K659" s="82" t="s">
         <v>1621</v>
       </c>
@@ -61610,7 +61613,7 @@
       <c r="G660" s="77" t="s">
         <v>1948</v>
       </c>
-      <c r="H660" s="95"/>
+      <c r="H660" s="97"/>
       <c r="K660" s="82" t="s">
         <v>1622</v>
       </c>
@@ -61676,7 +61679,7 @@
       <c r="G661" s="77" t="s">
         <v>1949</v>
       </c>
-      <c r="H661" s="95"/>
+      <c r="H661" s="97"/>
       <c r="K661" s="82" t="s">
         <v>1624</v>
       </c>
@@ -63233,7 +63236,7 @@
       <c r="G683" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="H683" s="92" t="s">
+      <c r="H683" s="94" t="s">
         <v>1891</v>
       </c>
       <c r="K683" s="75" t="s">
@@ -63301,7 +63304,7 @@
       <c r="G684" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="H684" s="92"/>
+      <c r="H684" s="94"/>
       <c r="K684" s="75" t="s">
         <v>1584</v>
       </c>
@@ -63367,7 +63370,7 @@
       <c r="G685" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="H685" s="92"/>
+      <c r="H685" s="94"/>
       <c r="K685" s="75" t="s">
         <v>1586</v>
       </c>
@@ -63433,7 +63436,7 @@
       <c r="G686" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="H686" s="92"/>
+      <c r="H686" s="94"/>
       <c r="K686" s="75" t="s">
         <v>1588</v>
       </c>
@@ -63499,7 +63502,7 @@
       <c r="G687" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="H687" s="92"/>
+      <c r="H687" s="94"/>
       <c r="K687" s="75" t="s">
         <v>1590</v>
       </c>
@@ -63565,7 +63568,7 @@
       <c r="G688" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="H688" s="92"/>
+      <c r="H688" s="94"/>
       <c r="K688" s="75" t="s">
         <v>1592</v>
       </c>
@@ -63631,7 +63634,7 @@
       <c r="G689" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="H689" s="92" t="s">
+      <c r="H689" s="94" t="s">
         <v>1892</v>
       </c>
       <c r="K689" s="75" t="s">
@@ -63699,7 +63702,7 @@
       <c r="G690" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="H690" s="93"/>
+      <c r="H690" s="95"/>
       <c r="K690" s="75" t="s">
         <v>1584</v>
       </c>
@@ -63765,7 +63768,7 @@
       <c r="G691" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="H691" s="93"/>
+      <c r="H691" s="95"/>
       <c r="K691" s="75" t="s">
         <v>1586</v>
       </c>
@@ -63831,7 +63834,7 @@
       <c r="G692" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="H692" s="93"/>
+      <c r="H692" s="95"/>
       <c r="K692" s="75" t="s">
         <v>1588</v>
       </c>
@@ -63897,7 +63900,7 @@
       <c r="G693" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="H693" s="93"/>
+      <c r="H693" s="95"/>
       <c r="K693" s="75" t="s">
         <v>1590</v>
       </c>
@@ -63963,7 +63966,7 @@
       <c r="G694" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="H694" s="93"/>
+      <c r="H694" s="95"/>
       <c r="K694" s="75" t="s">
         <v>1592</v>
       </c>
@@ -64260,7 +64263,7 @@
       <c r="G698" s="82" t="s">
         <v>1940</v>
       </c>
-      <c r="H698" s="94" t="s">
+      <c r="H698" s="96" t="s">
         <v>1950</v>
       </c>
       <c r="K698" s="82" t="s">
@@ -64328,7 +64331,7 @@
       <c r="G699" s="77" t="s">
         <v>1943</v>
       </c>
-      <c r="H699" s="95"/>
+      <c r="H699" s="97"/>
       <c r="K699" s="82" t="s">
         <v>1617</v>
       </c>
@@ -64394,7 +64397,7 @@
       <c r="G700" s="77" t="s">
         <v>1945</v>
       </c>
-      <c r="H700" s="95"/>
+      <c r="H700" s="97"/>
       <c r="K700" s="82" t="s">
         <v>1618</v>
       </c>
@@ -64460,7 +64463,7 @@
       <c r="G701" s="77" t="s">
         <v>1946</v>
       </c>
-      <c r="H701" s="95"/>
+      <c r="H701" s="97"/>
       <c r="K701" s="82" t="s">
         <v>1620</v>
       </c>
@@ -64526,7 +64529,7 @@
       <c r="G702" s="77" t="s">
         <v>1947</v>
       </c>
-      <c r="H702" s="95"/>
+      <c r="H702" s="97"/>
       <c r="K702" s="82" t="s">
         <v>1621</v>
       </c>
@@ -64592,7 +64595,7 @@
       <c r="G703" s="77" t="s">
         <v>1948</v>
       </c>
-      <c r="H703" s="95"/>
+      <c r="H703" s="97"/>
       <c r="K703" s="82" t="s">
         <v>1622</v>
       </c>
@@ -64658,7 +64661,7 @@
       <c r="G704" s="77" t="s">
         <v>1949</v>
       </c>
-      <c r="H704" s="95"/>
+      <c r="H704" s="97"/>
       <c r="K704" s="82" t="s">
         <v>1624</v>
       </c>
@@ -65013,7 +65016,7 @@
       <c r="G709" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H709" s="96" t="s">
+      <c r="H709" s="92" t="s">
         <v>1965</v>
       </c>
       <c r="J709" s="89" t="s">
@@ -65084,7 +65087,7 @@
       <c r="G710" s="89" t="s">
         <v>1963</v>
       </c>
-      <c r="H710" s="96"/>
+      <c r="H710" s="92"/>
       <c r="J710" s="89" t="s">
         <v>1547</v>
       </c>
@@ -65153,7 +65156,7 @@
       <c r="G711" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H711" s="96"/>
+      <c r="H711" s="92"/>
       <c r="J711" s="89" t="s">
         <v>1547</v>
       </c>
@@ -65222,7 +65225,7 @@
       <c r="G712" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H712" s="96"/>
+      <c r="H712" s="92"/>
       <c r="J712" s="89" t="s">
         <v>1547</v>
       </c>
@@ -65291,7 +65294,7 @@
       <c r="G713" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H713" s="96"/>
+      <c r="H713" s="92"/>
       <c r="J713" s="89" t="s">
         <v>1554</v>
       </c>
@@ -65360,7 +65363,7 @@
       <c r="G714" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H714" s="96"/>
+      <c r="H714" s="92"/>
       <c r="J714" s="89" t="s">
         <v>1554</v>
       </c>
@@ -65429,7 +65432,7 @@
       <c r="G715" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H715" s="96"/>
+      <c r="H715" s="92"/>
       <c r="J715" s="89" t="s">
         <v>1554</v>
       </c>
@@ -65498,7 +65501,7 @@
       <c r="G716" s="89" t="s">
         <v>1963</v>
       </c>
-      <c r="H716" s="96"/>
+      <c r="H716" s="92"/>
       <c r="J716" s="89" t="s">
         <v>1554</v>
       </c>
@@ -65567,7 +65570,7 @@
       <c r="G717" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H717" s="96"/>
+      <c r="H717" s="92"/>
       <c r="J717" s="89" t="s">
         <v>1561</v>
       </c>
@@ -65636,7 +65639,7 @@
       <c r="G718" s="89" t="s">
         <v>1963</v>
       </c>
-      <c r="H718" s="96"/>
+      <c r="H718" s="92"/>
       <c r="J718" s="89" t="s">
         <v>1561</v>
       </c>
@@ -65705,7 +65708,7 @@
       <c r="G719" s="89" t="s">
         <v>1963</v>
       </c>
-      <c r="H719" s="96"/>
+      <c r="H719" s="92"/>
       <c r="J719" s="89" t="s">
         <v>1561</v>
       </c>
@@ -65774,7 +65777,7 @@
       <c r="G720" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H720" s="96"/>
+      <c r="H720" s="92"/>
       <c r="J720" s="89" t="s">
         <v>1561</v>
       </c>
@@ -65843,7 +65846,7 @@
       <c r="G721" s="89" t="s">
         <v>1963</v>
       </c>
-      <c r="H721" s="96"/>
+      <c r="H721" s="92"/>
       <c r="J721" s="89" t="s">
         <v>1450</v>
       </c>
@@ -65912,7 +65915,7 @@
       <c r="G722" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H722" s="96"/>
+      <c r="H722" s="92"/>
       <c r="J722" s="89" t="s">
         <v>1450</v>
       </c>
@@ -65981,7 +65984,7 @@
       <c r="G723" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H723" s="96"/>
+      <c r="H723" s="92"/>
       <c r="J723" s="89" t="s">
         <v>1450</v>
       </c>
@@ -66050,7 +66053,7 @@
       <c r="G724" s="89" t="s">
         <v>1964</v>
       </c>
-      <c r="H724" s="96"/>
+      <c r="H724" s="92"/>
       <c r="J724" s="89" t="s">
         <v>1450</v>
       </c>
@@ -66176,7 +66179,7 @@
       <c r="G726" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="H726" s="91" t="s">
+      <c r="H726" s="93" t="s">
         <v>2012</v>
       </c>
       <c r="J726" s="21" t="s">
@@ -66247,7 +66250,7 @@
       <c r="G727" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="H727" s="91"/>
+      <c r="H727" s="93"/>
       <c r="J727" s="21" t="s">
         <v>1554</v>
       </c>
@@ -66316,7 +66319,7 @@
       <c r="G728" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="H728" s="91"/>
+      <c r="H728" s="93"/>
       <c r="J728" s="21" t="s">
         <v>1554</v>
       </c>
@@ -66385,7 +66388,7 @@
       <c r="G729" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="H729" s="91"/>
+      <c r="H729" s="93"/>
       <c r="J729" s="21" t="s">
         <v>1554</v>
       </c>
@@ -66454,7 +66457,7 @@
       <c r="G730" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="H730" s="91"/>
+      <c r="H730" s="93"/>
       <c r="J730" s="21" t="s">
         <v>1561</v>
       </c>
@@ -66523,7 +66526,7 @@
       <c r="G731" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="H731" s="91"/>
+      <c r="H731" s="93"/>
       <c r="J731" s="21" t="s">
         <v>1561</v>
       </c>
@@ -66592,7 +66595,7 @@
       <c r="G732" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="H732" s="91"/>
+      <c r="H732" s="93"/>
       <c r="J732" s="21" t="s">
         <v>1561</v>
       </c>
@@ -66661,7 +66664,7 @@
       <c r="G733" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="H733" s="91"/>
+      <c r="H733" s="93"/>
       <c r="J733" s="21" t="s">
         <v>1561</v>
       </c>
@@ -66730,7 +66733,7 @@
       <c r="G734" s="30" t="s">
         <v>2010</v>
       </c>
-      <c r="H734" s="91"/>
+      <c r="H734" s="93"/>
       <c r="J734" s="21" t="s">
         <v>1450</v>
       </c>
@@ -66799,7 +66802,7 @@
       <c r="G735" s="30" t="s">
         <v>2010</v>
       </c>
-      <c r="H735" s="91"/>
+      <c r="H735" s="93"/>
       <c r="J735" s="21" t="s">
         <v>1450</v>
       </c>
@@ -66868,7 +66871,7 @@
       <c r="G736" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="H736" s="91"/>
+      <c r="H736" s="93"/>
       <c r="J736" s="21" t="s">
         <v>1450</v>
       </c>
@@ -66937,7 +66940,7 @@
       <c r="G737" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="H737" s="91"/>
+      <c r="H737" s="93"/>
       <c r="J737" s="21" t="s">
         <v>1450</v>
       </c>
@@ -67006,7 +67009,7 @@
       <c r="G738" s="90" t="s">
         <v>2041</v>
       </c>
-      <c r="H738" s="96" t="s">
+      <c r="H738" s="92" t="s">
         <v>2042</v>
       </c>
       <c r="J738" s="90" t="s">
@@ -67046,7 +67049,7 @@
         <v>1636416000</v>
       </c>
       <c r="AA738" s="90">
-        <v>1636991999</v>
+        <v>1637596799</v>
       </c>
       <c r="AB738" s="90">
         <v>76</v>
@@ -67077,7 +67080,7 @@
       <c r="G739" s="90" t="s">
         <v>2046</v>
       </c>
-      <c r="H739" s="96"/>
+      <c r="H739" s="92"/>
       <c r="J739" s="90" t="s">
         <v>1547</v>
       </c>
@@ -67115,7 +67118,7 @@
         <v>1636416000</v>
       </c>
       <c r="AA739" s="90">
-        <v>1636991999</v>
+        <v>1637596799</v>
       </c>
       <c r="AB739" s="90">
         <v>76</v>
@@ -67146,7 +67149,7 @@
       <c r="G740" s="90" t="s">
         <v>2046</v>
       </c>
-      <c r="H740" s="96"/>
+      <c r="H740" s="92"/>
       <c r="J740" s="90" t="s">
         <v>1547</v>
       </c>
@@ -67183,8 +67186,8 @@
       <c r="Z740" s="90">
         <v>1636416000</v>
       </c>
-      <c r="AA740" s="90">
-        <v>1636991999</v>
+      <c r="AA740" s="91">
+        <v>1637596799</v>
       </c>
       <c r="AB740" s="90">
         <v>76</v>
@@ -67215,7 +67218,7 @@
       <c r="G741" s="90" t="s">
         <v>2046</v>
       </c>
-      <c r="H741" s="96"/>
+      <c r="H741" s="92"/>
       <c r="J741" s="90" t="s">
         <v>1554</v>
       </c>
@@ -67252,8 +67255,8 @@
       <c r="Z741" s="90">
         <v>1636416000</v>
       </c>
-      <c r="AA741" s="90">
-        <v>1636991999</v>
+      <c r="AA741" s="91">
+        <v>1637596799</v>
       </c>
       <c r="AB741" s="90">
         <v>77</v>
@@ -67284,7 +67287,7 @@
       <c r="G742" s="90" t="s">
         <v>2046</v>
       </c>
-      <c r="H742" s="96"/>
+      <c r="H742" s="92"/>
       <c r="J742" s="90" t="s">
         <v>1554</v>
       </c>
@@ -67321,8 +67324,8 @@
       <c r="Z742" s="90">
         <v>1636416000</v>
       </c>
-      <c r="AA742" s="90">
-        <v>1636991999</v>
+      <c r="AA742" s="91">
+        <v>1637596799</v>
       </c>
       <c r="AB742" s="90">
         <v>77</v>
@@ -67353,7 +67356,7 @@
       <c r="G743" s="90" t="s">
         <v>2046</v>
       </c>
-      <c r="H743" s="96"/>
+      <c r="H743" s="92"/>
       <c r="J743" s="90" t="s">
         <v>1554</v>
       </c>
@@ -67390,8 +67393,8 @@
       <c r="Z743" s="90">
         <v>1636416000</v>
       </c>
-      <c r="AA743" s="90">
-        <v>1636991999</v>
+      <c r="AA743" s="91">
+        <v>1637596799</v>
       </c>
       <c r="AB743" s="90">
         <v>77</v>
@@ -67422,7 +67425,7 @@
       <c r="G744" s="90" t="s">
         <v>2046</v>
       </c>
-      <c r="H744" s="96"/>
+      <c r="H744" s="92"/>
       <c r="J744" s="90" t="s">
         <v>1561</v>
       </c>
@@ -67459,8 +67462,8 @@
       <c r="Z744" s="90">
         <v>1636416000</v>
       </c>
-      <c r="AA744" s="90">
-        <v>1636991999</v>
+      <c r="AA744" s="91">
+        <v>1637596799</v>
       </c>
       <c r="AB744" s="90">
         <v>78</v>
@@ -67491,7 +67494,7 @@
       <c r="G745" s="90" t="s">
         <v>2046</v>
       </c>
-      <c r="H745" s="96"/>
+      <c r="H745" s="92"/>
       <c r="J745" s="90" t="s">
         <v>1561</v>
       </c>
@@ -67528,8 +67531,8 @@
       <c r="Z745" s="90">
         <v>1636416000</v>
       </c>
-      <c r="AA745" s="90">
-        <v>1636991999</v>
+      <c r="AA745" s="91">
+        <v>1637596799</v>
       </c>
       <c r="AB745" s="90">
         <v>78</v>
@@ -67560,7 +67563,7 @@
       <c r="G746" s="90" t="s">
         <v>2046</v>
       </c>
-      <c r="H746" s="96"/>
+      <c r="H746" s="92"/>
       <c r="J746" s="90" t="s">
         <v>1561</v>
       </c>
@@ -67597,8 +67600,8 @@
       <c r="Z746" s="90">
         <v>1636416000</v>
       </c>
-      <c r="AA746" s="90">
-        <v>1636991999</v>
+      <c r="AA746" s="91">
+        <v>1637596799</v>
       </c>
       <c r="AB746" s="90">
         <v>78</v>
@@ -67629,7 +67632,7 @@
       <c r="G747" s="90" t="s">
         <v>2046</v>
       </c>
-      <c r="H747" s="96"/>
+      <c r="H747" s="92"/>
       <c r="J747" s="90" t="s">
         <v>1450</v>
       </c>
@@ -67666,8 +67669,8 @@
       <c r="Z747" s="90">
         <v>1636416000</v>
       </c>
-      <c r="AA747" s="90">
-        <v>1636991999</v>
+      <c r="AA747" s="91">
+        <v>1637596799</v>
       </c>
       <c r="AB747" s="90">
         <v>79</v>
@@ -67698,7 +67701,7 @@
       <c r="G748" s="90" t="s">
         <v>2046</v>
       </c>
-      <c r="H748" s="96"/>
+      <c r="H748" s="92"/>
       <c r="J748" s="90" t="s">
         <v>1450</v>
       </c>
@@ -67735,8 +67738,8 @@
       <c r="Z748" s="90">
         <v>1636416000</v>
       </c>
-      <c r="AA748" s="90">
-        <v>1636991999</v>
+      <c r="AA748" s="91">
+        <v>1637596799</v>
       </c>
       <c r="AB748" s="90">
         <v>79</v>
@@ -67767,7 +67770,7 @@
       <c r="G749" s="90" t="s">
         <v>2046</v>
       </c>
-      <c r="H749" s="96"/>
+      <c r="H749" s="92"/>
       <c r="J749" s="90" t="s">
         <v>1450</v>
       </c>
@@ -67804,8 +67807,8 @@
       <c r="Z749" s="90">
         <v>1636416000</v>
       </c>
-      <c r="AA749" s="90">
-        <v>1636991999</v>
+      <c r="AA749" s="91">
+        <v>1637596799</v>
       </c>
       <c r="AB749" s="90">
         <v>79</v>

--- a/config_11.9/shoping_config_xiaomi.xlsx
+++ b/config_11.9/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5904" uniqueCount="2069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5910" uniqueCount="2075">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8012,6 +8012,30 @@
   </si>
   <si>
     <t>49800000,1688,10,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"额外比赛次数*10","1000万金币","66福利券","锁定*10","冰冻*10","狂暴*10",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_vip4_match","jing_bi","shop_gold_sum","prop_3d_fish_lock","prop_3d_fish_frozen","prop_3d_fish_wild",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10000000,66,10,10,10,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -11018,13 +11042,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AIG749"/>
+  <dimension ref="A1:AIG750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="X719" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA738" sqref="AA738:AA749"/>
+      <selection pane="bottomRight" activeCell="A750" sqref="A750:XFD750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -67826,6 +67850,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="750" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A750" s="21">
+        <v>749</v>
+      </c>
+      <c r="B750" s="30">
+        <v>10666</v>
+      </c>
+      <c r="F750" s="30">
+        <v>1</v>
+      </c>
+      <c r="G750" s="30" t="s">
+        <v>2069</v>
+      </c>
+      <c r="K750" s="30" t="s">
+        <v>2070</v>
+      </c>
+      <c r="M750" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N750" s="30">
+        <v>0</v>
+      </c>
+      <c r="O750" s="30">
+        <v>0</v>
+      </c>
+      <c r="P750" s="30" t="s">
+        <v>2071</v>
+      </c>
+      <c r="Q750" s="30">
+        <v>9800</v>
+      </c>
+      <c r="R750" s="30" t="s">
+        <v>2072</v>
+      </c>
+      <c r="S750" s="54" t="s">
+        <v>2073</v>
+      </c>
+      <c r="X750" s="30" t="s">
+        <v>2074</v>
+      </c>
+      <c r="Y750" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z750" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA750" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB750" s="30">
+        <v>14</v>
+      </c>
+      <c r="AI750" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ750" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM750" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN750" s="30">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="H738:H749"/>
